--- a/CAP_106_Research_Env/EDA_Report/CorrInfo/feed_temp_corr_info.xlsx
+++ b/CAP_106_Research_Env/EDA_Report/CorrInfo/feed_temp_corr_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Feed_Temp</t>
+          <t>Feed Temp1</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6973509474412696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -457,17 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8018844706034043</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Avg_Feed_Temp</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+        <v>0.09686687057543376</v>
       </c>
     </row>
   </sheetData>
